--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -12,17 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>One</t>
   </si>
@@ -56,12 +53,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック Medium"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,7 +67,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,13 +111,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -397,41 +400,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <f>ROW() - 1</f>
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -12,29 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,55 +36,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -107,17 +59,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,37 +343,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>